--- a/biology/Zoologie/Desmodilliscus_braueri/Desmodilliscus_braueri.xlsx
+++ b/biology/Zoologie/Desmodilliscus_braueri/Desmodilliscus_braueri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Gerbille de Brauer[1] (Desmodilliscus braueri) est la seule espèce du genre Desmodilliscus. Ce rongeur appelé aussi Gerbille naine de Buchanan[1] est une gerbille localisée au nord du Sénégal, du Nigéria et du Soudan.
+La Gerbille de Brauer (Desmodilliscus braueri) est la seule espèce du genre Desmodilliscus. Ce rongeur appelé aussi Gerbille naine de Buchanan est une gerbille localisée au nord du Sénégal, du Nigéria et du Soudan.
 </t>
         </is>
       </c>
